--- a/stock_historical_data/1wk/IGL.NS.xlsx
+++ b/stock_historical_data/1wk/IGL.NS.xlsx
@@ -57124,7 +57124,9 @@
       <c r="P1069" t="n">
         <v>0</v>
       </c>
-      <c r="Q1069" t="inlineStr"/>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IGL.NS.xlsx
+++ b/stock_historical_data/1wk/IGL.NS.xlsx
@@ -60389,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IGL.NS.xlsx
+++ b/stock_historical_data/1wk/IGL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1070"/>
+  <dimension ref="A1:R1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -60392,6 +60392,114 @@
       <c r="R1070" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>482.6000061035156</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>484.7000122070312</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>468.6000061035156</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>471.1000061035156</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>471.1000061035156</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>7854241</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>509.7000122070312</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>470.0499877929688</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>503.7000122070312</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>503.7000122070312</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>18860730</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IGL.NS.xlsx
+++ b/stock_historical_data/1wk/IGL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1072"/>
+  <dimension ref="A1:R1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -60325,7 +60325,7 @@
         <v>23</v>
       </c>
       <c r="O1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1069" t="n">
         <v>0</v>
@@ -60445,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60499,7 +60501,819 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>506.7000122070312</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>537.5</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>502.8500061035156</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>522.2999877929688</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>517.3237915039062</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>17182395</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>525.9500122070312</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>540.4500122070312</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>516.8499755859375</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>525.5</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>520.4933471679688</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>10928015</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>527</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>550.9000244140625</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>521.5999755859375</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>528.8499755859375</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>523.8114013671875</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>10626171</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>553.4000244140625</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>516.2999877929688</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>540.5</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>535.3504028320312</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>11724170</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>559.4000244140625</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>531</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>538.0999755859375</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>532.9732666015625</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>6952228</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>520</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>549</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>513.2999877929688</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>537.4000244140625</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>532.2799682617188</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>9487489</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>537.0499877929688</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>551</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>545.8499755859375</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>540.6494140625</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>3702684</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>522.75</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>524.0499877929688</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>519.05712890625</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>6072164</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>528</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>560.75</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>519.9500122070312</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>552.7999877929688</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>547.533203125</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>9409783</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>554.0999755859375</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>570.3499755859375</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>535.5499877929688</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>542.3499755859375</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>537.1827392578125</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>14206758</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>538.5499877929688</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>545</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>516.0499877929688</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>517.1500244140625</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>512.222900390625</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>4781949</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>518</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>562.75</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>517.1500244140625</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>538.9000244140625</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>538.9000244140625</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>27970619</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>538.5499877929688</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>558.5</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>534</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>549.5</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>549.5</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>8698991</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>549</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>569.5499877929688</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>543</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>549.3499755859375</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>549.3499755859375</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>9789551</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>553</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>553.0499877929688</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>540.5499877929688</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>540.5499877929688</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>10660063</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/IGL.NS.xlsx
+++ b/stock_historical_data/1wk/IGL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1087"/>
+  <dimension ref="A1:R1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -60557,7 +60557,9 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60611,7 +60613,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60665,7 +60669,9 @@
       <c r="Q1075" t="n">
         <v>1</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60719,7 +60725,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60773,7 +60781,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60827,7 +60837,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60881,7 +60893,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60935,7 +60949,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -60989,7 +61005,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -61043,7 +61061,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61097,7 +61117,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61151,7 +61173,9 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
@@ -61205,7 +61229,9 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -61259,7 +61285,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61313,7 +61341,1257 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>263.2645321973615</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>263.2645321973615</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>214.1949515328703</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>220.2159118652344</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>52040044</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>222.1172770248901</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>225.2374464678642</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>199.8372898970503</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>201.6167602539062</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>22386976</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>202.7380677606742</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>209.1246732340397</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>196.7171074684769</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>205.5901031494141</v>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="n">
+        <v>23572344</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>206.2238830487222</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>217.0469864082092</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>199.5691436990192</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>215.6575317382812</v>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="n">
+        <v>21099638</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>215.5600317822999</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>217.2176203891142</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>196.7658743502745</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>197.8384246826172</v>
+      </c>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="n">
+        <v>28373246</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>185</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>186.5500030517578</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>153.0500030517578</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>156.3249969482422</v>
+      </c>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="n">
+        <v>162136354</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>159.5500030517578</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>165.8249969482422</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>156.7250061035156</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>163.5249938964844</v>
+      </c>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="n">
+        <v>45004556</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>165</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>194.9499969482422</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>163.1499938964844</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>192</v>
+      </c>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="n">
+        <v>101338060</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>197.6000061035156</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>188.8500061035156</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>196.1000061035156</v>
+      </c>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="n">
+        <v>50776422</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>197.375</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>200.9499969482422</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>189.125</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>194.1499938964844</v>
+      </c>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="n">
+        <v>58706886</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>203.4750061035156</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>188.6750030517578</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>195.0500030517578</v>
+      </c>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="n">
+        <v>43563756</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>195.1000061035156</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>226.6999969482422</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>194.5500030517578</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>220.6750030517578</v>
+      </c>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="n">
+        <v>50189272</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>220.4750061035156</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>221.25</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>203</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>206.3999938964844</v>
+      </c>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="n">
+        <v>81492502</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>204.0500030517578</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>208.3500061035156</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>198.3000030517578</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="n">
+        <v>31622392</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>203.9750061035156</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>189.0249938964844</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>191.625</v>
+      </c>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="n">
+        <v>21898400</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>190.3249969482422</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>204.9499969482422</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>180.5249938964844</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>194.2100067138672</v>
+      </c>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="n">
+        <v>49514999</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>194.5299987792969</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>209.5299987792969</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>188.1900024414062</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>198.8999938964844</v>
+      </c>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="n">
+        <v>29641629</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>201</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>183.2799987792969</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>185.6699981689453</v>
+      </c>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="n">
+        <v>15360998</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>186.2100067138672</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>206.6100006103516</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>201.3999938964844</v>
+      </c>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="n">
+        <v>17365855</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>196</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>200.4400024414062</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>187.5700073242188</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>189.4799957275391</v>
+      </c>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="n">
+        <v>14252609</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>188.1000061035156</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>175.9100036621094</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>188.4900054931641</v>
+      </c>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="n">
+        <v>37403187</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>188</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>190.7299957275391</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>181.3999938964844</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>184.8800048828125</v>
+      </c>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="n">
+        <v>8028261</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>201.6399993896484</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>183.8200073242188</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>198.1399993896484</v>
+      </c>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="n">
+        <v>16241319</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>208.8800048828125</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>193.4700012207031</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>203.1199951171875</v>
+      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="n">
+        <v>20747117</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
